--- a/src/test/java/TestData/Ezzar_Login.xlsx
+++ b/src/test/java/TestData/Ezzar_Login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -24,42 +24,23 @@
     <t>Password</t>
   </si>
   <si>
-    <t>PBHOSA</t>
+    <t xml:space="preserve">Admin </t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>StreetADD</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>socialNum</t>
-  </si>
-  <si>
-    <t>qalogin2019</t>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,20 +60,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,16 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -409,40 +384,13 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>454545456</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Therapan@23!"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
